--- a/processos_siout.xlsx
+++ b/processos_siout.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="459">
   <si>
     <t>Prioridade</t>
   </si>
@@ -43,12 +43,18 @@
     <t>Não</t>
   </si>
   <si>
+    <t>2020/012.232</t>
+  </si>
+  <si>
     <t>2020/011.687</t>
   </si>
   <si>
     <t>2020/010.833</t>
   </si>
   <si>
+    <t>2020/010.778</t>
+  </si>
+  <si>
     <t>2020/010.683</t>
   </si>
   <si>
@@ -58,6 +64,9 @@
     <t>2020/009.716</t>
   </si>
   <si>
+    <t>2020/009.392</t>
+  </si>
+  <si>
     <t>2020/008.760</t>
   </si>
   <si>
@@ -109,9 +118,6 @@
     <t>2019/021.472</t>
   </si>
   <si>
-    <t>2019/021.194</t>
-  </si>
-  <si>
     <t>2019/020.046</t>
   </si>
   <si>
@@ -349,6 +355,9 @@
     <t>2016/007.957</t>
   </si>
   <si>
+    <t>N/D</t>
+  </si>
+  <si>
     <t>CGH Arroio da Reserva</t>
   </si>
   <si>
@@ -415,9 +424,6 @@
     <t>PCH Coronel Barros</t>
   </si>
   <si>
-    <t>CGH Eugênio de Castro</t>
-  </si>
-  <si>
     <t>PCH Forquilha II</t>
   </si>
   <si>
@@ -625,18 +631,21 @@
     <t>PCH Barra de ferro</t>
   </si>
   <si>
+    <t>VALE DO TURVO HIDRELÉTRICA LTDA</t>
+  </si>
+  <si>
     <t>SAULO SALLES BEVILACQUA NETO</t>
   </si>
   <si>
-    <t>VALE DO TURVO HIDRELÉTRICA LTDA</t>
-  </si>
-  <si>
     <t>BOA VISTA DO CADEADO ENERGIA LTDA.</t>
   </si>
   <si>
     <t>AÇO METAIS FRAIBURGO LTDA</t>
   </si>
   <si>
+    <t>Cassiano Collet</t>
+  </si>
+  <si>
     <t>IJUI CENTENARIA GERACAO SPE LTDA</t>
   </si>
   <si>
@@ -679,9 +688,6 @@
     <t>Cooperativa de Geração de Energia e Desenvolvimento Social LTDA</t>
   </si>
   <si>
-    <t>EUGENIO DE CASTRO GERACAO E COMERCIO DE ENERGIA ELETRICA LTDA</t>
-  </si>
-  <si>
     <t>Vertente Engenharia Ltda</t>
   </si>
   <si>
@@ -826,21 +832,24 @@
     <t>TRES FRONTEIRAS GERAÇÃO DE ENERGIA</t>
   </si>
   <si>
+    <t>André da Rocha</t>
+  </si>
+  <si>
     <t>Pinhal Grande</t>
   </si>
   <si>
     <t>Muitos Capões</t>
   </si>
   <si>
-    <t>André da Rocha</t>
-  </si>
-  <si>
     <t>Boa Vista do Cadeado</t>
   </si>
   <si>
     <t>Esmeralda</t>
   </si>
   <si>
+    <t>Barracão</t>
+  </si>
+  <si>
     <t>Ijuí</t>
   </si>
   <si>
@@ -874,81 +883,81 @@
     <t>Estrela</t>
   </si>
   <si>
+    <t>Maximiliano de Almeida</t>
+  </si>
+  <si>
+    <t>Campestre da Serra</t>
+  </si>
+  <si>
+    <t>Entre-Ijuís</t>
+  </si>
+  <si>
+    <t>Humaitá</t>
+  </si>
+  <si>
+    <t>Sananduva</t>
+  </si>
+  <si>
+    <t>Arvorezinha</t>
+  </si>
+  <si>
+    <t>Bom Jesus</t>
+  </si>
+  <si>
+    <t>Caxias do Sul</t>
+  </si>
+  <si>
+    <t>Nova Prata</t>
+  </si>
+  <si>
+    <t>Vila Flores</t>
+  </si>
+  <si>
+    <t>Crissiumal</t>
+  </si>
+  <si>
+    <t>Taquaruçu do Sul</t>
+  </si>
+  <si>
+    <t>São José dos Ausentes</t>
+  </si>
+  <si>
+    <t>Protásio Alves</t>
+  </si>
+  <si>
+    <t>Pouso Novo</t>
+  </si>
+  <si>
+    <t>São Valentim do Sul</t>
+  </si>
+  <si>
+    <t>Machadinho</t>
+  </si>
+  <si>
+    <t>Monte Alegre dos Campos</t>
+  </si>
+  <si>
+    <t>Panambi</t>
+  </si>
+  <si>
+    <t>Soledade</t>
+  </si>
+  <si>
+    <t>Jacutinga</t>
+  </si>
+  <si>
+    <t>Dom Feliciano</t>
+  </si>
+  <si>
+    <t>Imigrante</t>
+  </si>
+  <si>
+    <t>Alpestre</t>
+  </si>
+  <si>
     <t>Eugênio de Castro</t>
   </si>
   <si>
-    <t>Maximiliano de Almeida</t>
-  </si>
-  <si>
-    <t>Campestre da Serra</t>
-  </si>
-  <si>
-    <t>Entre-Ijuís</t>
-  </si>
-  <si>
-    <t>Humaitá</t>
-  </si>
-  <si>
-    <t>Sananduva</t>
-  </si>
-  <si>
-    <t>Arvorezinha</t>
-  </si>
-  <si>
-    <t>Bom Jesus</t>
-  </si>
-  <si>
-    <t>Caxias do Sul</t>
-  </si>
-  <si>
-    <t>Nova Prata</t>
-  </si>
-  <si>
-    <t>Vila Flores</t>
-  </si>
-  <si>
-    <t>Crissiumal</t>
-  </si>
-  <si>
-    <t>Taquaruçu do Sul</t>
-  </si>
-  <si>
-    <t>São José dos Ausentes</t>
-  </si>
-  <si>
-    <t>Protásio Alves</t>
-  </si>
-  <si>
-    <t>Pouso Novo</t>
-  </si>
-  <si>
-    <t>São Valentim do Sul</t>
-  </si>
-  <si>
-    <t>Machadinho</t>
-  </si>
-  <si>
-    <t>Monte Alegre dos Campos</t>
-  </si>
-  <si>
-    <t>Panambi</t>
-  </si>
-  <si>
-    <t>Soledade</t>
-  </si>
-  <si>
-    <t>Jacutinga</t>
-  </si>
-  <si>
-    <t>Dom Feliciano</t>
-  </si>
-  <si>
-    <t>Imigrante</t>
-  </si>
-  <si>
-    <t>Alpestre</t>
-  </si>
-  <si>
     <t>Ipê</t>
   </si>
   <si>
@@ -991,21 +1000,30 @@
     <t>Sinimbu</t>
   </si>
   <si>
+    <t>Aguardando análise</t>
+  </si>
+  <si>
     <t>Aguardando alterações de dados inconsistentes</t>
   </si>
   <si>
     <t>Concedida</t>
   </si>
   <si>
+    <t>Em análise</t>
+  </si>
+  <si>
     <t>Indeferida</t>
   </si>
   <si>
-    <t>Aguardando análise</t>
+    <t>22/07/2020</t>
   </si>
   <si>
     <t>17/07/2020</t>
   </si>
   <si>
+    <t>07/08/2020</t>
+  </si>
+  <si>
     <t>21/07/2020</t>
   </si>
   <si>
@@ -1030,102 +1048,102 @@
     <t>24/04/2020</t>
   </si>
   <si>
+    <t>11/05/2020</t>
+  </si>
+  <si>
+    <t>09/04/2020</t>
+  </si>
+  <si>
+    <t>29/07/2020</t>
+  </si>
+  <si>
+    <t>02/03/2020</t>
+  </si>
+  <si>
+    <t>08/04/2020</t>
+  </si>
+  <si>
+    <t>19/06/2020</t>
+  </si>
+  <si>
+    <t>15/04/2020</t>
+  </si>
+  <si>
+    <t>21/02/2020</t>
+  </si>
+  <si>
+    <t>12/06/2020</t>
+  </si>
+  <si>
+    <t>14/04/2020</t>
+  </si>
+  <si>
+    <t>08/01/2020</t>
+  </si>
+  <si>
+    <t>22/07/2019</t>
+  </si>
+  <si>
+    <t>20/04/2020</t>
+  </si>
+  <si>
+    <t>16/03/2020</t>
+  </si>
+  <si>
+    <t>16/05/2019</t>
+  </si>
+  <si>
+    <t>20/07/2020</t>
+  </si>
+  <si>
+    <t>10/02/2020</t>
+  </si>
+  <si>
+    <t>26/06/2020</t>
+  </si>
+  <si>
+    <t>04/02/2020</t>
+  </si>
+  <si>
+    <t>29/04/2020</t>
+  </si>
+  <si>
+    <t>08/06/2020</t>
+  </si>
+  <si>
+    <t>20/02/2020</t>
+  </si>
+  <si>
+    <t>28/01/2020</t>
+  </si>
+  <si>
+    <t>31/01/2020</t>
+  </si>
+  <si>
+    <t>13/12/2019</t>
+  </si>
+  <si>
+    <t>06/02/2019</t>
+  </si>
+  <si>
+    <t>16/04/2020</t>
+  </si>
+  <si>
+    <t>07/02/2019</t>
+  </si>
+  <si>
+    <t>14/02/2020</t>
+  </si>
+  <si>
+    <t>09/07/2020</t>
+  </si>
+  <si>
+    <t>07/07/2020</t>
+  </si>
+  <si>
     <t>27/07/2020</t>
   </si>
   <si>
-    <t>11/05/2020</t>
-  </si>
-  <si>
-    <t>09/04/2020</t>
-  </si>
-  <si>
-    <t>29/07/2020</t>
-  </si>
-  <si>
-    <t>02/03/2020</t>
-  </si>
-  <si>
-    <t>08/04/2020</t>
-  </si>
-  <si>
-    <t>19/06/2020</t>
-  </si>
-  <si>
-    <t>15/04/2020</t>
-  </si>
-  <si>
-    <t>21/02/2020</t>
-  </si>
-  <si>
-    <t>12/06/2020</t>
-  </si>
-  <si>
-    <t>14/04/2020</t>
-  </si>
-  <si>
-    <t>08/01/2020</t>
-  </si>
-  <si>
-    <t>22/07/2019</t>
-  </si>
-  <si>
-    <t>20/04/2020</t>
-  </si>
-  <si>
-    <t>16/03/2020</t>
-  </si>
-  <si>
-    <t>16/05/2019</t>
-  </si>
-  <si>
-    <t>20/07/2020</t>
-  </si>
-  <si>
-    <t>10/02/2020</t>
-  </si>
-  <si>
-    <t>26/06/2020</t>
-  </si>
-  <si>
-    <t>04/02/2020</t>
-  </si>
-  <si>
-    <t>29/04/2020</t>
-  </si>
-  <si>
-    <t>08/06/2020</t>
-  </si>
-  <si>
-    <t>20/02/2020</t>
-  </si>
-  <si>
-    <t>28/01/2020</t>
-  </si>
-  <si>
-    <t>31/01/2020</t>
-  </si>
-  <si>
-    <t>13/12/2019</t>
-  </si>
-  <si>
-    <t>06/02/2019</t>
-  </si>
-  <si>
-    <t>16/04/2020</t>
-  </si>
-  <si>
-    <t>07/02/2019</t>
-  </si>
-  <si>
-    <t>14/02/2020</t>
-  </si>
-  <si>
-    <t>09/07/2020</t>
-  </si>
-  <si>
-    <t>07/07/2020</t>
-  </si>
-  <si>
     <t>12/02/2019</t>
   </si>
   <si>
@@ -1280,9 +1298,6 @@
   </si>
   <si>
     <t>R-001.142/2020</t>
-  </si>
-  <si>
-    <t>R-000.900/2020</t>
   </si>
   <si>
     <t>R-000.839/2020</t>
@@ -1733,7 +1748,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1773,22 +1788,22 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H2" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1799,22 +1814,22 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F3" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G3" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H3" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1825,22 +1840,22 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F4" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="H4" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1851,22 +1866,22 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
         <v>205</v>
       </c>
       <c r="E5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F5" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G5" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="H5" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1877,22 +1892,22 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F6" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G6" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H6" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1903,7 +1918,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
         <v>207</v>
@@ -1912,13 +1927,13 @@
         <v>275</v>
       </c>
       <c r="F7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1929,22 +1944,22 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F8" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G8" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H8" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1955,22 +1970,22 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1984,19 +1999,19 @@
         <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F10" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G10" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H10" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2010,19 +2025,19 @@
         <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F11" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G11" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H11" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2042,13 +2057,13 @@
         <v>279</v>
       </c>
       <c r="F12" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G12" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H12" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2068,13 +2083,13 @@
         <v>280</v>
       </c>
       <c r="F13" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G13" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H13" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2094,13 +2109,13 @@
         <v>281</v>
       </c>
       <c r="F14" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G14" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2117,16 +2132,16 @@
         <v>214</v>
       </c>
       <c r="E15" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F15" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G15" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H15" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2143,16 +2158,16 @@
         <v>215</v>
       </c>
       <c r="E16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F16" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="G16" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H16" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2169,16 +2184,16 @@
         <v>216</v>
       </c>
       <c r="E17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F17" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G17" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H17" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2192,19 +2207,19 @@
         <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E18" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F18" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G18" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H18" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2218,19 +2233,19 @@
         <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E19" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F19" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G19" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H19" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2244,19 +2259,19 @@
         <v>129</v>
       </c>
       <c r="D20" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E20" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F20" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G20" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H20" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2270,19 +2285,19 @@
         <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E21" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F21" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G21" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H21" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2296,19 +2311,19 @@
         <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F22" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G22" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="H22" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2322,19 +2337,19 @@
         <v>132</v>
       </c>
       <c r="D23" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E23" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="F23" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G23" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H23" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2351,16 +2366,16 @@
         <v>221</v>
       </c>
       <c r="E24" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F24" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G24" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="H24" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2377,16 +2392,16 @@
         <v>222</v>
       </c>
       <c r="E25" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F25" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G25" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="H25" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2403,16 +2418,16 @@
         <v>223</v>
       </c>
       <c r="E26" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F26" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G26" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H26" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2432,13 +2447,13 @@
         <v>289</v>
       </c>
       <c r="F27" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G27" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H27" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2455,16 +2470,16 @@
         <v>225</v>
       </c>
       <c r="E28" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="F28" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G28" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H28" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2481,16 +2496,16 @@
         <v>226</v>
       </c>
       <c r="E29" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F29" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G29" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H29" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2507,16 +2522,16 @@
         <v>227</v>
       </c>
       <c r="E30" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="F30" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G30" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H30" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2533,16 +2548,16 @@
         <v>228</v>
       </c>
       <c r="E31" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="F31" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G31" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="H31" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2559,16 +2574,16 @@
         <v>229</v>
       </c>
       <c r="E32" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F32" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="G32" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H32" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2585,16 +2600,16 @@
         <v>230</v>
       </c>
       <c r="E33" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F33" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G33" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="H33" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2611,16 +2626,16 @@
         <v>231</v>
       </c>
       <c r="E34" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F34" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G34" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="H34" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2637,16 +2652,16 @@
         <v>232</v>
       </c>
       <c r="E35" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F35" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G35" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H35" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2666,13 +2681,13 @@
         <v>295</v>
       </c>
       <c r="F36" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H36" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2692,13 +2707,13 @@
         <v>296</v>
       </c>
       <c r="F37" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G37" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H37" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2718,13 +2733,13 @@
         <v>297</v>
       </c>
       <c r="F38" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G38" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H38" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2741,16 +2756,16 @@
         <v>236</v>
       </c>
       <c r="E39" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F39" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G39" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H39" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2761,22 +2776,22 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="D40" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="E40" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F40" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G40" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H40" t="s">
-        <v>407</v>
+        <v>436</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2787,22 +2802,22 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D41" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E41" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F41" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G41" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H41" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2813,22 +2828,22 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="D42" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="E42" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="F42" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G42" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H42" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2845,16 +2860,16 @@
         <v>239</v>
       </c>
       <c r="E43" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F43" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G43" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H43" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2871,16 +2886,16 @@
         <v>240</v>
       </c>
       <c r="E44" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F44" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G44" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H44" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2894,19 +2909,19 @@
         <v>152</v>
       </c>
       <c r="D45" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="E45" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="F45" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="G45" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H45" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2920,19 +2935,19 @@
         <v>153</v>
       </c>
       <c r="D46" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="E46" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="F46" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G46" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="H46" t="s">
-        <v>407</v>
+        <v>438</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2946,19 +2961,19 @@
         <v>154</v>
       </c>
       <c r="D47" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="E47" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F47" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="G47" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="H47" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2972,19 +2987,19 @@
         <v>155</v>
       </c>
       <c r="D48" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E48" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F48" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G48" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="H48" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2998,19 +3013,19 @@
         <v>156</v>
       </c>
       <c r="D49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F49" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="G49" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H49" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3030,13 +3045,13 @@
         <v>303</v>
       </c>
       <c r="F50" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G50" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H50" t="s">
-        <v>407</v>
+        <v>439</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3056,13 +3071,13 @@
         <v>304</v>
       </c>
       <c r="F51" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G51" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="H51" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3082,13 +3097,13 @@
         <v>305</v>
       </c>
       <c r="F52" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G52" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="H52" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3108,13 +3123,13 @@
         <v>306</v>
       </c>
       <c r="F53" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G53" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="H53" t="s">
-        <v>407</v>
+        <v>440</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3134,13 +3149,13 @@
         <v>307</v>
       </c>
       <c r="F54" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G54" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H54" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3157,16 +3172,16 @@
         <v>248</v>
       </c>
       <c r="E55" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="F55" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G55" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="H55" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3183,16 +3198,16 @@
         <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F56" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G56" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H56" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3209,16 +3224,16 @@
         <v>250</v>
       </c>
       <c r="E57" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="F57" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G57" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H57" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3229,22 +3244,22 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D58" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E58" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F58" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G58" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="H58" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3255,22 +3270,22 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D59" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E59" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="F59" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G59" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="H59" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3281,22 +3296,22 @@
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D60" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E60" t="s">
         <v>310</v>
       </c>
       <c r="F60" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G60" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H60" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3310,19 +3325,19 @@
         <v>167</v>
       </c>
       <c r="D61" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E61" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="F61" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G61" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H61" t="s">
-        <v>407</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3336,19 +3351,19 @@
         <v>168</v>
       </c>
       <c r="D62" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E62" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="F62" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="G62" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="H62" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3362,19 +3377,19 @@
         <v>169</v>
       </c>
       <c r="D63" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="E63" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F63" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G63" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="H63" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3388,19 +3403,19 @@
         <v>170</v>
       </c>
       <c r="D64" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="E64" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="F64" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G64" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H64" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3414,19 +3429,19 @@
         <v>171</v>
       </c>
       <c r="D65" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="E65" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="F65" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G65" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H65" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3440,19 +3455,19 @@
         <v>172</v>
       </c>
       <c r="D66" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="E66" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="F66" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G66" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H66" t="s">
-        <v>407</v>
+        <v>446</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3469,16 +3484,16 @@
         <v>256</v>
       </c>
       <c r="E67" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="F67" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G67" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H67" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3495,16 +3510,16 @@
         <v>257</v>
       </c>
       <c r="E68" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="F68" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="G68" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H68" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3521,16 +3536,16 @@
         <v>258</v>
       </c>
       <c r="E69" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="F69" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G69" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H69" t="s">
-        <v>407</v>
+        <v>448</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3547,16 +3562,16 @@
         <v>259</v>
       </c>
       <c r="E70" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F70" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G70" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H70" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3573,16 +3588,16 @@
         <v>260</v>
       </c>
       <c r="E71" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="F71" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G71" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H71" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3593,22 +3608,22 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="D72" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="E72" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="F72" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G72" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="H72" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3619,22 +3634,22 @@
         <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D73" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="E73" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="F73" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G73" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H73" t="s">
-        <v>444</v>
+        <v>413</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3645,22 +3660,22 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="D74" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="E74" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="F74" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="G74" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H74" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3674,19 +3689,19 @@
         <v>180</v>
       </c>
       <c r="D75" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E75" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="F75" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G75" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H75" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3697,22 +3712,22 @@
         <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="D76" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="E76" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="F76" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G76" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="H76" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3723,22 +3738,22 @@
         <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D77" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E77" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="F77" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G77" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H77" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3749,22 +3764,22 @@
         <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="D78" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="E78" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="F78" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="G78" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H78" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3775,22 +3790,22 @@
         <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="D79" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="E79" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="F79" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G79" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H79" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3801,22 +3816,22 @@
         <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D80" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="E80" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="F80" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G80" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="H80" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3827,22 +3842,22 @@
         <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="D81" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E81" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F81" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="G81" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="H81" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3856,19 +3871,19 @@
         <v>185</v>
       </c>
       <c r="D82" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="E82" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="F82" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G82" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="H82" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3882,19 +3897,19 @@
         <v>186</v>
       </c>
       <c r="D83" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E83" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F83" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G83" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="H83" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3908,19 +3923,19 @@
         <v>187</v>
       </c>
       <c r="D84" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="E84" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="F84" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G84" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="H84" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3931,22 +3946,22 @@
         <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="D85" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="E85" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="F85" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G85" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="H85" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3957,22 +3972,22 @@
         <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D86" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="E86" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="F86" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G86" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="H86" t="s">
-        <v>448</v>
+        <v>413</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3983,22 +3998,22 @@
         <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="D87" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E87" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="F87" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G87" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="H87" t="s">
-        <v>449</v>
+        <v>413</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4009,22 +4024,22 @@
         <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="D88" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="E88" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="F88" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G88" t="s">
-        <v>399</v>
+        <v>350</v>
       </c>
       <c r="H88" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4035,22 +4050,22 @@
         <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>126</v>
+        <v>191</v>
       </c>
       <c r="D89" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="E89" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="F89" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G89" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H89" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4061,22 +4076,22 @@
         <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="D90" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="E90" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="F90" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G90" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H90" t="s">
-        <v>450</v>
+        <v>413</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4087,22 +4102,22 @@
         <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="D91" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E91" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="F91" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G91" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H91" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4116,19 +4131,19 @@
         <v>192</v>
       </c>
       <c r="D92" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="E92" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F92" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G92" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="H92" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4142,19 +4157,19 @@
         <v>193</v>
       </c>
       <c r="D93" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="E93" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F93" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G93" t="s">
-        <v>339</v>
+        <v>408</v>
       </c>
       <c r="H93" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4165,22 +4180,22 @@
         <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="D94" t="s">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="E94" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="F94" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G94" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H94" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4191,22 +4206,22 @@
         <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D95" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E95" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F95" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G95" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="H95" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4217,22 +4232,22 @@
         <v>103</v>
       </c>
       <c r="C96" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="D96" t="s">
-        <v>269</v>
+        <v>210</v>
       </c>
       <c r="E96" t="s">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="F96" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="G96" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="H96" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4246,19 +4261,19 @@
         <v>196</v>
       </c>
       <c r="D97" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E97" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F97" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G97" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="H97" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4272,19 +4287,19 @@
         <v>197</v>
       </c>
       <c r="D98" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E98" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F98" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G98" t="s">
-        <v>369</v>
+        <v>401</v>
       </c>
       <c r="H98" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4298,19 +4313,19 @@
         <v>198</v>
       </c>
       <c r="D99" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E99" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F99" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G99" t="s">
-        <v>405</v>
+        <v>374</v>
       </c>
       <c r="H99" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4324,19 +4339,19 @@
         <v>199</v>
       </c>
       <c r="D100" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E100" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F100" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G100" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="H100" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4350,19 +4365,19 @@
         <v>200</v>
       </c>
       <c r="D101" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E101" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F101" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G101" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="H101" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4376,19 +4391,19 @@
         <v>201</v>
       </c>
       <c r="D102" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E102" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F102" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G102" t="s">
-        <v>405</v>
+        <v>374</v>
       </c>
       <c r="H102" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4402,19 +4417,71 @@
         <v>202</v>
       </c>
       <c r="D103" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E103" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="F103" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G103" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="H103" t="s">
-        <v>407</v>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" t="s">
+        <v>111</v>
+      </c>
+      <c r="C104" t="s">
+        <v>203</v>
+      </c>
+      <c r="D104" t="s">
+        <v>271</v>
+      </c>
+      <c r="E104" t="s">
+        <v>327</v>
+      </c>
+      <c r="F104" t="s">
+        <v>329</v>
+      </c>
+      <c r="G104" t="s">
+        <v>411</v>
+      </c>
+      <c r="H104" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105" t="s">
+        <v>204</v>
+      </c>
+      <c r="D105" t="s">
+        <v>271</v>
+      </c>
+      <c r="E105" t="s">
+        <v>323</v>
+      </c>
+      <c r="F105" t="s">
+        <v>329</v>
+      </c>
+      <c r="G105" t="s">
+        <v>412</v>
+      </c>
+      <c r="H105" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>

--- a/processos_siout.xlsx
+++ b/processos_siout.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="469">
   <si>
     <t>Prioridade</t>
   </si>
@@ -43,6 +43,12 @@
     <t>Não</t>
   </si>
   <si>
+    <t>2020/013.600</t>
+  </si>
+  <si>
+    <t>2020/013.471</t>
+  </si>
+  <si>
     <t>2020/012.232</t>
   </si>
   <si>
@@ -85,7 +91,7 @@
     <t>2020/005.099</t>
   </si>
   <si>
-    <t>2020/002.866</t>
+    <t>2020/002.905</t>
   </si>
   <si>
     <t>2020/001.754</t>
@@ -94,9 +100,6 @@
     <t>2020/001.523</t>
   </si>
   <si>
-    <t>2020/000.536</t>
-  </si>
-  <si>
     <t>2020/000.360</t>
   </si>
   <si>
@@ -274,9 +277,6 @@
     <t>2018/010.895</t>
   </si>
   <si>
-    <t>2018/019.843</t>
-  </si>
-  <si>
     <t>2018/005.528</t>
   </si>
   <si>
@@ -310,6 +310,9 @@
     <t>2017/028.651</t>
   </si>
   <si>
+    <t>2017/028.636</t>
+  </si>
+  <si>
     <t>2017/028.632</t>
   </si>
   <si>
@@ -358,12 +361,18 @@
     <t>N/D</t>
   </si>
   <si>
+    <t>CGH Limeira</t>
+  </si>
+  <si>
     <t>CGH Arroio da Reserva</t>
   </si>
   <si>
     <t>PCH Lixiguana</t>
   </si>
   <si>
+    <t>PCH Barra do Ituim</t>
+  </si>
+  <si>
     <t>PCH Fazenda Velha</t>
   </si>
   <si>
@@ -373,6 +382,9 @@
     <t>CGH Guabiju II</t>
   </si>
   <si>
+    <t>CGH Collet</t>
+  </si>
+  <si>
     <t>PCH Sede II</t>
   </si>
   <si>
@@ -391,7 +403,7 @@
     <t>PCH Ferradura</t>
   </si>
   <si>
-    <t>PCH Linha Onze Oeste</t>
+    <t>CGH São Marcos</t>
   </si>
   <si>
     <t>CGH Três Marias</t>
@@ -400,9 +412,6 @@
     <t>CGH Fortaleza</t>
   </si>
   <si>
-    <t>CGH Suzana</t>
-  </si>
-  <si>
     <t>CGH Buricá</t>
   </si>
   <si>
@@ -565,9 +574,6 @@
     <t>PCH Saltinho</t>
   </si>
   <si>
-    <t>CGH Chimarrão</t>
-  </si>
-  <si>
     <t>PCH Teste Amanda</t>
   </si>
   <si>
@@ -631,6 +637,12 @@
     <t>PCH Barra de ferro</t>
   </si>
   <si>
+    <t>Z-4 Geração de Energia Elétrica</t>
+  </si>
+  <si>
+    <t>Cooperativa de Geração de Energia e Desenvolvimento Social LTDA</t>
+  </si>
+  <si>
     <t>VALE DO TURVO HIDRELÉTRICA LTDA</t>
   </si>
   <si>
@@ -661,7 +673,7 @@
     <t>BT GERADORA DE ENERGIA ELETRICA S.A.</t>
   </si>
   <si>
-    <t>LINHA ONZE OESTE ENERGIA LTDA</t>
+    <t>HDE 01 PARTICIPACOES SOCIETARIAS EIRELI</t>
   </si>
   <si>
     <t>BORTOLON AGROCOMERCIAL EIRELI</t>
@@ -670,9 +682,6 @@
     <t>ENERBIO SERVICOS DE ENGENHARIA LTDA</t>
   </si>
   <si>
-    <t>USINA HIDRELETRICA SUZANA I LTDA</t>
-  </si>
-  <si>
     <t>COOPERATIVA DE DESENVOLVIMENTO SOCIAL ENTRE RIOS LTDA.</t>
   </si>
   <si>
@@ -685,9 +694,6 @@
     <t>GUARITA GERADORA DE ENERGIA LTDA</t>
   </si>
   <si>
-    <t>Cooperativa de Geração de Energia e Desenvolvimento Social LTDA</t>
-  </si>
-  <si>
     <t>Vertente Engenharia Ltda</t>
   </si>
   <si>
@@ -811,15 +817,15 @@
     <t>SALTINHO ENERGÉTICA S/A</t>
   </si>
   <si>
-    <t>CHIMARRÃO ENERGÉTICA S.A.</t>
-  </si>
-  <si>
     <t>Amanda Fadel</t>
   </si>
   <si>
     <t>ENERGÉTICA RIO LIGEIRO LTDA</t>
   </si>
   <si>
+    <t>CENTRAL GERADORA HIDRELÉTRICA FORQUILHA LTDA.</t>
+  </si>
+  <si>
     <t>ITASUL ENERGY GERAÇÃO DE ENERGIA LTDA</t>
   </si>
   <si>
@@ -832,6 +838,12 @@
     <t>TRES FRONTEIRAS GERAÇÃO DE ENERGIA</t>
   </si>
   <si>
+    <t>Vacaria</t>
+  </si>
+  <si>
+    <t>Augusto Pestana</t>
+  </si>
+  <si>
     <t>André da Rocha</t>
   </si>
   <si>
@@ -865,24 +877,21 @@
     <t>Erval Seco</t>
   </si>
   <si>
+    <t>Caxias do Sul</t>
+  </si>
+  <si>
+    <t>Inhacorá</t>
+  </si>
+  <si>
+    <t>São Marcos</t>
+  </si>
+  <si>
+    <t>Estrela</t>
+  </si>
+  <si>
     <t>Coronel Barros</t>
   </si>
   <si>
-    <t>Vacaria</t>
-  </si>
-  <si>
-    <t>Gaurama</t>
-  </si>
-  <si>
-    <t>Inhacorá</t>
-  </si>
-  <si>
-    <t>São Marcos</t>
-  </si>
-  <si>
-    <t>Estrela</t>
-  </si>
-  <si>
     <t>Maximiliano de Almeida</t>
   </si>
   <si>
@@ -904,9 +913,6 @@
     <t>Bom Jesus</t>
   </si>
   <si>
-    <t>Caxias do Sul</t>
-  </si>
-  <si>
     <t>Nova Prata</t>
   </si>
   <si>
@@ -1000,25 +1006,31 @@
     <t>Sinimbu</t>
   </si>
   <si>
+    <t>Aguardando alterações de dados inconsistentes</t>
+  </si>
+  <si>
+    <t>Em análise</t>
+  </si>
+  <si>
+    <t>Concedida</t>
+  </si>
+  <si>
+    <t>Indeferida</t>
+  </si>
+  <si>
     <t>Aguardando análise</t>
   </si>
   <si>
-    <t>Aguardando alterações de dados inconsistentes</t>
-  </si>
-  <si>
-    <t>Concedida</t>
-  </si>
-  <si>
-    <t>Em análise</t>
-  </si>
-  <si>
-    <t>Indeferida</t>
+    <t>18/08/2020</t>
+  </si>
+  <si>
+    <t>26/08/2020</t>
   </si>
   <si>
     <t>22/07/2020</t>
   </si>
   <si>
-    <t>17/07/2020</t>
+    <t>28/08/2020</t>
   </si>
   <si>
     <t>07/08/2020</t>
@@ -1042,21 +1054,21 @@
     <t>22/06/2020</t>
   </si>
   <si>
-    <t>27/04/2020</t>
+    <t>13/08/2020</t>
   </si>
   <si>
     <t>24/04/2020</t>
   </si>
   <si>
+    <t>28/02/2020</t>
+  </si>
+  <si>
     <t>11/05/2020</t>
   </si>
   <si>
     <t>09/04/2020</t>
   </si>
   <si>
-    <t>29/07/2020</t>
-  </si>
-  <si>
     <t>02/03/2020</t>
   </si>
   <si>
@@ -1096,9 +1108,6 @@
     <t>20/07/2020</t>
   </si>
   <si>
-    <t>10/02/2020</t>
-  </si>
-  <si>
     <t>26/06/2020</t>
   </si>
   <si>
@@ -1111,15 +1120,9 @@
     <t>08/06/2020</t>
   </si>
   <si>
-    <t>20/02/2020</t>
-  </si>
-  <si>
     <t>28/01/2020</t>
   </si>
   <si>
-    <t>31/01/2020</t>
-  </si>
-  <si>
     <t>13/12/2019</t>
   </si>
   <si>
@@ -1132,6 +1135,12 @@
     <t>07/02/2019</t>
   </si>
   <si>
+    <t>12/08/2020</t>
+  </si>
+  <si>
+    <t>10/08/2020</t>
+  </si>
+  <si>
     <t>14/02/2020</t>
   </si>
   <si>
@@ -1210,9 +1219,6 @@
     <t>11/01/2019</t>
   </si>
   <si>
-    <t>30/05/2020</t>
-  </si>
-  <si>
     <t>05/03/2018</t>
   </si>
   <si>
@@ -1234,6 +1240,9 @@
     <t>11/09/2018</t>
   </si>
   <si>
+    <t>20/08/2020</t>
+  </si>
+  <si>
     <t>05/09/2019</t>
   </si>
   <si>
@@ -1258,12 +1267,21 @@
     <t>-</t>
   </si>
   <si>
+    <t>R-001.538/2020</t>
+  </si>
+  <si>
+    <t>R-001.539/2020</t>
+  </si>
+  <si>
     <t>O-001.394/2020</t>
   </si>
   <si>
     <t>R-001.236/2020</t>
   </si>
   <si>
+    <t>R-001.572/2020</t>
+  </si>
+  <si>
     <t>O-001.056/2020</t>
   </si>
   <si>
@@ -1315,6 +1333,9 @@
     <t>O-000.644/2020</t>
   </si>
   <si>
+    <t>O-001.537/2020</t>
+  </si>
+  <si>
     <t>O-000.841/2020</t>
   </si>
   <si>
@@ -1327,10 +1348,19 @@
     <t>O-001.105/2020</t>
   </si>
   <si>
+    <t>O-001.535/2020</t>
+  </si>
+  <si>
+    <t>O-001.536/2020</t>
+  </si>
+  <si>
     <t>O-000.464/2019</t>
   </si>
   <si>
     <t>R-000.897/2020</t>
+  </si>
+  <si>
+    <t>O-001.497/2020</t>
   </si>
   <si>
     <t>R-000.594/2020</t>
@@ -1748,7 +1778,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1788,22 +1818,22 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1817,19 +1847,19 @@
         <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H3" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1843,19 +1873,19 @@
         <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H4" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1866,22 +1896,22 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E5" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H5" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1892,22 +1922,22 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E6" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F6" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G6" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H6" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1918,22 +1948,22 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F7" t="s">
         <v>330</v>
       </c>
       <c r="G7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1944,22 +1974,22 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E8" t="s">
         <v>276</v>
       </c>
       <c r="F8" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G8" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H8" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1970,22 +2000,22 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F9" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G9" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H9" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1996,22 +2026,22 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G10" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H10" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2022,22 +2052,22 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E11" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F11" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G11" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H11" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2048,22 +2078,22 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E12" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F12" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G12" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H12" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2074,7 +2104,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D13" t="s">
         <v>212</v>
@@ -2083,13 +2113,13 @@
         <v>280</v>
       </c>
       <c r="F13" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G13" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H13" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2100,22 +2130,22 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E14" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F14" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G14" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H14" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2126,22 +2156,22 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F15" t="s">
         <v>330</v>
       </c>
       <c r="G15" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H15" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2152,22 +2182,22 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D16" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E16" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G16" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="H16" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2178,22 +2208,22 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E17" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F17" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G17" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H17" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2204,22 +2234,22 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D18" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E18" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F18" t="s">
         <v>330</v>
       </c>
       <c r="G18" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H18" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2230,22 +2260,22 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E19" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F19" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G19" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H19" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2256,22 +2286,22 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D20" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E20" t="s">
         <v>286</v>
       </c>
       <c r="F20" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G20" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H20" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2282,22 +2312,22 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D21" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E21" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="F21" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G21" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H21" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2308,22 +2338,22 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D22" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E22" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F22" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G22" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H22" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2334,22 +2364,22 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D23" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E23" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F23" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G23" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H23" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2360,22 +2390,22 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D24" t="s">
         <v>221</v>
       </c>
       <c r="E24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F24" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G24" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H24" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2386,22 +2416,22 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D25" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E25" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="F25" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G25" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="H25" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2412,22 +2442,22 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D26" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E26" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F26" t="s">
         <v>330</v>
       </c>
       <c r="G26" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="H26" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2438,22 +2468,22 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D27" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="E27" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F27" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G27" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H27" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2464,22 +2494,22 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E28" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F28" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G28" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H28" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2490,22 +2520,22 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E29" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F29" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G29" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="H29" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2516,22 +2546,22 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E30" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="F30" t="s">
         <v>330</v>
       </c>
       <c r="G30" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="H30" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2542,22 +2572,22 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E31" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F31" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G31" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H31" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2568,22 +2598,22 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E32" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F32" t="s">
         <v>332</v>
       </c>
       <c r="G32" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H32" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2594,22 +2624,22 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E33" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="F33" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G33" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="H33" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2620,22 +2650,22 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D34" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E34" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="F34" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G34" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="H34" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2646,22 +2676,22 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D35" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E35" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F35" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G35" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H35" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2672,22 +2702,22 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D36" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E36" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F36" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G36" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H36" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2698,22 +2728,22 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D37" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E37" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F37" t="s">
         <v>332</v>
       </c>
       <c r="G37" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H37" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2724,22 +2754,22 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D38" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E38" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F38" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G38" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H38" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2750,22 +2780,22 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D39" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E39" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F39" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G39" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H39" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2776,22 +2806,22 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E40" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F40" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G40" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H40" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2802,22 +2832,22 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D41" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E41" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F41" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G41" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H41" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2828,22 +2858,22 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="D42" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="E42" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F42" t="s">
         <v>332</v>
       </c>
       <c r="G42" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="H42" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2854,22 +2884,22 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="D43" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="E43" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="F43" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="G43" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H43" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2880,22 +2910,22 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D44" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E44" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F44" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G44" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="H44" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2906,13 +2936,13 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D45" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E45" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F45" t="s">
         <v>332</v>
@@ -2921,7 +2951,7 @@
         <v>369</v>
       </c>
       <c r="H45" t="s">
-        <v>413</v>
+        <v>446</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2932,22 +2962,22 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E46" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F46" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G46" t="s">
         <v>370</v>
       </c>
       <c r="H46" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2958,13 +2988,13 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D47" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="E47" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="F47" t="s">
         <v>332</v>
@@ -2973,7 +3003,7 @@
         <v>371</v>
       </c>
       <c r="H47" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2984,22 +3014,22 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D48" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E48" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F48" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G48" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="H48" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3010,22 +3040,22 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D49" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E49" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="F49" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G49" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="H49" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3036,7 +3066,7 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D50" t="s">
         <v>243</v>
@@ -3045,13 +3075,13 @@
         <v>303</v>
       </c>
       <c r="F50" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G50" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H50" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3062,22 +3092,22 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D51" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E51" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F51" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G51" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H51" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3088,22 +3118,22 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E52" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F52" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G52" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H52" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3114,22 +3144,22 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E53" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F53" t="s">
         <v>330</v>
       </c>
       <c r="G53" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="H53" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3140,22 +3170,22 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E54" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F54" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G54" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="H54" t="s">
-        <v>413</v>
+        <v>450</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3166,22 +3196,22 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D55" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E55" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F55" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G55" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H55" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3192,22 +3222,22 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D56" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E56" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F56" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G56" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H56" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3218,22 +3248,22 @@
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D57" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E57" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="F57" t="s">
         <v>330</v>
       </c>
       <c r="G57" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H57" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3244,22 +3274,22 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D58" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E58" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="F58" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G58" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H58" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3270,22 +3300,22 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D59" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E59" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F59" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G59" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H59" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3296,22 +3326,22 @@
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D60" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E60" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F60" t="s">
         <v>330</v>
       </c>
       <c r="G60" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H60" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3322,22 +3352,22 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D61" t="s">
         <v>253</v>
       </c>
       <c r="E61" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="F61" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G61" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H61" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3348,22 +3378,22 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D62" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E62" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="F62" t="s">
         <v>332</v>
       </c>
       <c r="G62" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H62" t="s">
-        <v>413</v>
+        <v>454</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3374,22 +3404,22 @@
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E63" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F63" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G63" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H63" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3400,22 +3430,22 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D64" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E64" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F64" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G64" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="H64" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3426,22 +3456,22 @@
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D65" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="E65" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F65" t="s">
         <v>330</v>
       </c>
       <c r="G65" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H65" t="s">
-        <v>445</v>
+        <v>416</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3452,22 +3482,22 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D66" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E66" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="F66" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G66" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H66" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3478,22 +3508,22 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D67" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="E67" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="F67" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G67" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H67" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3504,22 +3534,22 @@
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D68" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E68" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="F68" t="s">
         <v>332</v>
       </c>
       <c r="G68" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H68" t="s">
-        <v>413</v>
+        <v>457</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3530,22 +3560,22 @@
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D69" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F69" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G69" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H69" t="s">
-        <v>448</v>
+        <v>416</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3556,22 +3586,22 @@
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D70" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E70" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="F70" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G70" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H70" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3582,22 +3612,22 @@
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D71" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E71" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="F71" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G71" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H71" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3608,22 +3638,22 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D72" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E72" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F72" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G72" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H72" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3634,22 +3664,22 @@
         <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D73" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E73" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F73" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G73" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H73" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3660,22 +3690,22 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="D74" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="E74" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="F74" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G74" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H74" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3686,22 +3716,22 @@
         <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="D75" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="E75" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F75" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G75" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H75" t="s">
-        <v>449</v>
+        <v>416</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3712,22 +3742,22 @@
         <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D76" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="E76" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="F76" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G76" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H76" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3738,22 +3768,22 @@
         <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D77" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E77" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F77" t="s">
         <v>330</v>
       </c>
       <c r="G77" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H77" t="s">
-        <v>450</v>
+        <v>416</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3764,22 +3794,22 @@
         <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="D78" t="s">
-        <v>221</v>
+        <v>266</v>
       </c>
       <c r="E78" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="F78" t="s">
         <v>332</v>
       </c>
       <c r="G78" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H78" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3790,22 +3820,22 @@
         <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="D79" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="E79" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="F79" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G79" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H79" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3816,22 +3846,22 @@
         <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D80" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E80" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F80" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G80" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H80" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3842,22 +3872,22 @@
         <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D81" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E81" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="F81" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G81" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H81" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3868,22 +3898,22 @@
         <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D82" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E82" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="F82" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G82" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H82" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3894,22 +3924,22 @@
         <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D83" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E83" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="F83" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G83" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H83" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3920,22 +3950,22 @@
         <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D84" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E84" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F84" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G84" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H84" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3946,22 +3976,22 @@
         <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D85" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E85" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="F85" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G85" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H85" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3972,22 +4002,22 @@
         <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D86" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E86" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="F86" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G86" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H86" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3998,22 +4028,22 @@
         <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D87" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E87" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F87" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G87" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H87" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4024,22 +4054,22 @@
         <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D88" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E88" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F88" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G88" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H88" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4050,22 +4080,22 @@
         <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D89" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E89" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F89" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G89" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H89" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4076,22 +4106,22 @@
         <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D90" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E90" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F90" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G90" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H90" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4102,22 +4132,22 @@
         <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D91" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="E91" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="F91" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G91" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H91" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4128,22 +4158,22 @@
         <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="D92" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E92" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="F92" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G92" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H92" t="s">
-        <v>455</v>
+        <v>416</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4154,22 +4184,22 @@
         <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D93" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E93" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F93" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G93" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H93" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4180,22 +4210,22 @@
         <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D94" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="E94" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="F94" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G94" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H94" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4206,22 +4236,22 @@
         <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D95" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E95" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="F95" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G95" t="s">
-        <v>344</v>
+        <v>412</v>
       </c>
       <c r="H95" t="s">
-        <v>457</v>
+        <v>416</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4232,22 +4262,22 @@
         <v>103</v>
       </c>
       <c r="C96" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="D96" t="s">
-        <v>210</v>
+        <v>271</v>
       </c>
       <c r="E96" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="F96" t="s">
         <v>332</v>
       </c>
       <c r="G96" t="s">
-        <v>410</v>
+        <v>349</v>
       </c>
       <c r="H96" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4258,22 +4288,22 @@
         <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="D97" t="s">
-        <v>270</v>
+        <v>214</v>
       </c>
       <c r="E97" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="F97" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G97" t="s">
-        <v>336</v>
+        <v>413</v>
       </c>
       <c r="H97" t="s">
-        <v>458</v>
+        <v>416</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4284,22 +4314,22 @@
         <v>105</v>
       </c>
       <c r="C98" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D98" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E98" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F98" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G98" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="H98" t="s">
-        <v>413</v>
+        <v>468</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4310,22 +4340,22 @@
         <v>106</v>
       </c>
       <c r="C99" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D99" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E99" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F99" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G99" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
       <c r="H99" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4336,22 +4366,22 @@
         <v>107</v>
       </c>
       <c r="C100" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D100" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E100" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F100" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G100" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H100" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4362,22 +4392,22 @@
         <v>108</v>
       </c>
       <c r="C101" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D101" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E101" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F101" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G101" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="H101" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4388,22 +4418,22 @@
         <v>109</v>
       </c>
       <c r="C102" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D102" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E102" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F102" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G102" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="H102" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4414,22 +4444,22 @@
         <v>110</v>
       </c>
       <c r="C103" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D103" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E103" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F103" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G103" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="H103" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4440,22 +4470,22 @@
         <v>111</v>
       </c>
       <c r="C104" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D104" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E104" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F104" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G104" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H104" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4466,22 +4496,48 @@
         <v>112</v>
       </c>
       <c r="C105" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D105" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E105" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="F105" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G105" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H105" t="s">
-        <v>413</v>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106" t="s">
+        <v>206</v>
+      </c>
+      <c r="D106" t="s">
+        <v>273</v>
+      </c>
+      <c r="E106" t="s">
+        <v>325</v>
+      </c>
+      <c r="F106" t="s">
+        <v>330</v>
+      </c>
+      <c r="G106" t="s">
+        <v>415</v>
+      </c>
+      <c r="H106" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>

--- a/processos_siout.xlsx
+++ b/processos_siout.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="475">
   <si>
     <t>Prioridade</t>
   </si>
@@ -43,6 +43,9 @@
     <t>Não</t>
   </si>
   <si>
+    <t>2020/014.974</t>
+  </si>
+  <si>
     <t>2020/013.600</t>
   </si>
   <si>
@@ -637,6 +640,9 @@
     <t>PCH Barra de ferro</t>
   </si>
   <si>
+    <t>CGH SANTO ANJO GERAÇÃO DE ENERGIA S.A</t>
+  </si>
+  <si>
     <t>Z-4 Geração de Energia Elétrica</t>
   </si>
   <si>
@@ -838,6 +844,9 @@
     <t>TRES FRONTEIRAS GERAÇÃO DE ENERGIA</t>
   </si>
   <si>
+    <t>Caxias do Sul</t>
+  </si>
+  <si>
     <t>Vacaria</t>
   </si>
   <si>
@@ -877,9 +886,6 @@
     <t>Erval Seco</t>
   </si>
   <si>
-    <t>Caxias do Sul</t>
-  </si>
-  <si>
     <t>Inhacorá</t>
   </si>
   <si>
@@ -1006,19 +1012,19 @@
     <t>Sinimbu</t>
   </si>
   <si>
+    <t>Aguardando análise</t>
+  </si>
+  <si>
+    <t>Concedida</t>
+  </si>
+  <si>
     <t>Aguardando alterações de dados inconsistentes</t>
   </si>
   <si>
-    <t>Em análise</t>
-  </si>
-  <si>
-    <t>Concedida</t>
-  </si>
-  <si>
     <t>Indeferida</t>
   </si>
   <si>
-    <t>Aguardando análise</t>
+    <t>27/08/2020</t>
   </si>
   <si>
     <t>18/08/2020</t>
@@ -1252,7 +1258,7 @@
     <t>22/04/2020</t>
   </si>
   <si>
-    <t>19/12/2019</t>
+    <t>31/08/2020</t>
   </si>
   <si>
     <t>26/05/2020</t>
@@ -1267,6 +1273,15 @@
     <t>-</t>
   </si>
   <si>
+    <t>R-001.624/2020</t>
+  </si>
+  <si>
+    <t>R-001.608/2020</t>
+  </si>
+  <si>
+    <t>R-001.607/2020</t>
+  </si>
+  <si>
     <t>R-001.538/2020</t>
   </si>
   <si>
@@ -1415,6 +1430,9 @@
   </si>
   <si>
     <t>R-000.866/2020</t>
+  </si>
+  <si>
+    <t>O-001.609/2020</t>
   </si>
   <si>
     <t>O-000.957/2020</t>
@@ -1778,7 +1796,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1818,22 +1836,22 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1844,22 +1862,22 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H3" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1873,19 +1891,19 @@
         <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H4" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1899,19 +1917,19 @@
         <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F5" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H5" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1925,19 +1943,19 @@
         <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H6" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1951,19 +1969,19 @@
         <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1977,16 +1995,16 @@
         <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E8" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F8" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G8" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H8" t="s">
         <v>418</v>
@@ -2009,13 +2027,13 @@
         <v>279</v>
       </c>
       <c r="F9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H9" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2029,19 +2047,19 @@
         <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H10" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2055,19 +2073,19 @@
         <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E11" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G11" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H11" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2081,19 +2099,19 @@
         <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E12" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F12" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G12" t="s">
         <v>342</v>
       </c>
       <c r="H12" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2107,19 +2125,19 @@
         <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E13" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H13" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2133,19 +2151,19 @@
         <v>125</v>
       </c>
       <c r="D14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E14" t="s">
         <v>283</v>
       </c>
       <c r="F14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G14" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H14" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2159,19 +2177,19 @@
         <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E15" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F15" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H15" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2185,19 +2203,19 @@
         <v>127</v>
       </c>
       <c r="D16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E16" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F16" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G16" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H16" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2211,19 +2229,19 @@
         <v>128</v>
       </c>
       <c r="D17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E17" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F17" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G17" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H17" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2237,19 +2255,19 @@
         <v>129</v>
       </c>
       <c r="D18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E18" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F18" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G18" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H18" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2263,19 +2281,19 @@
         <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E19" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G19" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H19" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2289,19 +2307,19 @@
         <v>131</v>
       </c>
       <c r="D20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E20" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="F20" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G20" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H20" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2315,19 +2333,19 @@
         <v>132</v>
       </c>
       <c r="D21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F21" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G21" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H21" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2341,19 +2359,19 @@
         <v>133</v>
       </c>
       <c r="D22" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E22" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F22" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G22" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H22" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2367,19 +2385,19 @@
         <v>134</v>
       </c>
       <c r="D23" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E23" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F23" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G23" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H23" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2393,19 +2411,19 @@
         <v>135</v>
       </c>
       <c r="D24" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F24" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G24" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H24" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2419,19 +2437,19 @@
         <v>136</v>
       </c>
       <c r="D25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F25" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G25" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H25" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2445,19 +2463,19 @@
         <v>137</v>
       </c>
       <c r="D26" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E26" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="F26" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G26" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="H26" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2471,19 +2489,19 @@
         <v>138</v>
       </c>
       <c r="D27" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="E27" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F27" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G27" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="H27" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2497,19 +2515,19 @@
         <v>139</v>
       </c>
       <c r="D28" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="E28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F28" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G28" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H28" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2523,19 +2541,19 @@
         <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F29" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G29" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H29" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2549,19 +2567,19 @@
         <v>141</v>
       </c>
       <c r="D30" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E30" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F30" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G30" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H30" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2575,19 +2593,19 @@
         <v>142</v>
       </c>
       <c r="D31" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E31" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="F31" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G31" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H31" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2601,19 +2619,19 @@
         <v>143</v>
       </c>
       <c r="D32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E32" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="F32" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G32" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H32" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2627,19 +2645,19 @@
         <v>144</v>
       </c>
       <c r="D33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F33" t="s">
         <v>333</v>
       </c>
       <c r="G33" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H33" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2653,19 +2671,19 @@
         <v>145</v>
       </c>
       <c r="D34" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E34" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="F34" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G34" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="H34" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2679,19 +2697,19 @@
         <v>146</v>
       </c>
       <c r="D35" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E35" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="F35" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G35" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="H35" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2705,19 +2723,19 @@
         <v>147</v>
       </c>
       <c r="D36" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E36" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F36" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G36" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="H36" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2731,19 +2749,19 @@
         <v>148</v>
       </c>
       <c r="D37" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E37" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F37" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G37" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="H37" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2757,19 +2775,19 @@
         <v>149</v>
       </c>
       <c r="D38" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E38" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="F38" t="s">
         <v>333</v>
       </c>
       <c r="G38" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H38" t="s">
-        <v>416</v>
+        <v>445</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2783,19 +2801,19 @@
         <v>150</v>
       </c>
       <c r="D39" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E39" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="F39" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G39" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H39" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2809,19 +2827,19 @@
         <v>151</v>
       </c>
       <c r="D40" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E40" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F40" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G40" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H40" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2835,19 +2853,19 @@
         <v>152</v>
       </c>
       <c r="D41" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E41" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F41" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G41" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H41" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2861,19 +2879,19 @@
         <v>153</v>
       </c>
       <c r="D42" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E42" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F42" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G42" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="H42" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2884,22 +2902,22 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="D43" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="E43" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F43" t="s">
         <v>333</v>
       </c>
       <c r="G43" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="H43" t="s">
-        <v>416</v>
+        <v>449</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2910,22 +2928,22 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D44" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="E44" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F44" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G44" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="H44" t="s">
-        <v>445</v>
+        <v>418</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2939,19 +2957,19 @@
         <v>154</v>
       </c>
       <c r="D45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E45" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F45" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G45" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="H45" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2965,19 +2983,19 @@
         <v>155</v>
       </c>
       <c r="D46" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E46" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F46" t="s">
         <v>333</v>
       </c>
       <c r="G46" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H46" t="s">
-        <v>416</v>
+        <v>451</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2991,19 +3009,19 @@
         <v>156</v>
       </c>
       <c r="D47" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E47" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F47" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G47" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H47" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3017,19 +3035,19 @@
         <v>157</v>
       </c>
       <c r="D48" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="E48" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="F48" t="s">
         <v>333</v>
       </c>
       <c r="G48" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H48" t="s">
-        <v>416</v>
+        <v>452</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3043,19 +3061,19 @@
         <v>158</v>
       </c>
       <c r="D49" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E49" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="F49" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G49" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H49" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3069,19 +3087,19 @@
         <v>159</v>
       </c>
       <c r="D50" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E50" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="F50" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G50" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H50" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3101,13 +3119,13 @@
         <v>305</v>
       </c>
       <c r="F51" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G51" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H51" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3121,19 +3139,19 @@
         <v>161</v>
       </c>
       <c r="D52" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E52" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F52" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G52" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H52" t="s">
-        <v>416</v>
+        <v>454</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3147,19 +3165,19 @@
         <v>162</v>
       </c>
       <c r="D53" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E53" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F53" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G53" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H53" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3173,19 +3191,19 @@
         <v>163</v>
       </c>
       <c r="D54" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E54" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F54" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G54" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="H54" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3199,19 +3217,19 @@
         <v>164</v>
       </c>
       <c r="D55" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E55" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F55" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G55" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="H55" t="s">
-        <v>416</v>
+        <v>455</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3225,19 +3243,19 @@
         <v>165</v>
       </c>
       <c r="D56" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E56" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F56" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G56" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H56" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3251,19 +3269,19 @@
         <v>166</v>
       </c>
       <c r="D57" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E57" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F57" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G57" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H57" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3277,19 +3295,19 @@
         <v>167</v>
       </c>
       <c r="D58" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E58" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="F58" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G58" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H58" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3303,19 +3321,19 @@
         <v>168</v>
       </c>
       <c r="D59" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E59" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="F59" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G59" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H59" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3329,19 +3347,19 @@
         <v>169</v>
       </c>
       <c r="D60" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E60" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F60" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G60" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H60" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3352,22 +3370,22 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D61" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E61" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F61" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G61" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H61" t="s">
-        <v>453</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3378,22 +3396,22 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D62" t="s">
         <v>255</v>
       </c>
       <c r="E62" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="F62" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G62" t="s">
         <v>384</v>
       </c>
       <c r="H62" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3407,19 +3425,19 @@
         <v>171</v>
       </c>
       <c r="D63" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E63" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="F63" t="s">
         <v>333</v>
       </c>
       <c r="G63" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H63" t="s">
-        <v>416</v>
+        <v>459</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3433,19 +3451,19 @@
         <v>172</v>
       </c>
       <c r="D64" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E64" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F64" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G64" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H64" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3459,19 +3477,19 @@
         <v>173</v>
       </c>
       <c r="D65" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E65" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F65" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G65" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="H65" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3485,19 +3503,19 @@
         <v>174</v>
       </c>
       <c r="D66" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="E66" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F66" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G66" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H66" t="s">
-        <v>455</v>
+        <v>418</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3511,19 +3529,19 @@
         <v>175</v>
       </c>
       <c r="D67" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E67" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="F67" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G67" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H67" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3537,19 +3555,19 @@
         <v>176</v>
       </c>
       <c r="D68" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="E68" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="F68" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G68" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H68" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3563,19 +3581,19 @@
         <v>177</v>
       </c>
       <c r="D69" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E69" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="F69" t="s">
         <v>333</v>
       </c>
       <c r="G69" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H69" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3589,19 +3607,19 @@
         <v>178</v>
       </c>
       <c r="D70" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E70" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F70" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G70" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H70" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3615,19 +3633,19 @@
         <v>179</v>
       </c>
       <c r="D71" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E71" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="F71" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G71" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H71" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3641,19 +3659,19 @@
         <v>180</v>
       </c>
       <c r="D72" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E72" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F72" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G72" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H72" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3667,19 +3685,19 @@
         <v>181</v>
       </c>
       <c r="D73" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E73" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F73" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G73" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H73" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3693,19 +3711,19 @@
         <v>182</v>
       </c>
       <c r="D74" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E74" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F74" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G74" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H74" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3716,22 +3734,22 @@
         <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="D75" t="s">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="E75" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="F75" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G75" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H75" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3742,22 +3760,22 @@
         <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="D76" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="E76" t="s">
         <v>293</v>
       </c>
       <c r="F76" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G76" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H76" t="s">
-        <v>459</v>
+        <v>418</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3771,19 +3789,19 @@
         <v>184</v>
       </c>
       <c r="D77" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E77" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="F77" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G77" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H77" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3797,19 +3815,19 @@
         <v>185</v>
       </c>
       <c r="D78" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E78" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F78" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G78" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H78" t="s">
-        <v>460</v>
+        <v>418</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3820,22 +3838,22 @@
         <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="D79" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="E79" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="F79" t="s">
         <v>333</v>
       </c>
       <c r="G79" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H79" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3846,22 +3864,22 @@
         <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="D80" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="E80" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="F80" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G80" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H80" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3872,22 +3890,22 @@
         <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="D81" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="E81" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F81" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G81" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H81" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3898,22 +3916,22 @@
         <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D82" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E82" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F82" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G82" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="H82" t="s">
-        <v>461</v>
+        <v>418</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3927,19 +3945,19 @@
         <v>188</v>
       </c>
       <c r="D83" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E83" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F83" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G83" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="H83" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3953,19 +3971,19 @@
         <v>189</v>
       </c>
       <c r="D84" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="E84" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="F84" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G84" t="s">
-        <v>344</v>
+        <v>405</v>
       </c>
       <c r="H84" t="s">
-        <v>462</v>
+        <v>418</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3979,19 +3997,19 @@
         <v>190</v>
       </c>
       <c r="D85" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="E85" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="F85" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G85" t="s">
-        <v>404</v>
+        <v>346</v>
       </c>
       <c r="H85" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4005,19 +4023,19 @@
         <v>191</v>
       </c>
       <c r="D86" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E86" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F86" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G86" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="H86" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4028,22 +4046,22 @@
         <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="D87" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="E87" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="F87" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G87" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="H87" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4054,22 +4072,22 @@
         <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="D88" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E88" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="F88" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G88" t="s">
-        <v>354</v>
+        <v>407</v>
       </c>
       <c r="H88" t="s">
-        <v>463</v>
+        <v>418</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4083,19 +4101,19 @@
         <v>193</v>
       </c>
       <c r="D89" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E89" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F89" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G89" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="H89" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4106,22 +4124,22 @@
         <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="D90" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="E90" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="F90" t="s">
         <v>333</v>
       </c>
       <c r="G90" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H90" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4132,22 +4150,22 @@
         <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D91" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="E91" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F91" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G91" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H91" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4158,22 +4176,22 @@
         <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D92" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="E92" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="F92" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G92" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H92" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4184,22 +4202,22 @@
         <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="D93" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E93" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="F93" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G93" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H93" t="s">
-        <v>465</v>
+        <v>418</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4213,19 +4231,19 @@
         <v>195</v>
       </c>
       <c r="D94" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E94" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F94" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G94" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H94" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4239,19 +4257,19 @@
         <v>196</v>
       </c>
       <c r="D95" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="E95" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="F95" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G95" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H95" t="s">
-        <v>416</v>
+        <v>471</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4265,19 +4283,19 @@
         <v>197</v>
       </c>
       <c r="D96" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E96" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="F96" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G96" t="s">
-        <v>349</v>
+        <v>414</v>
       </c>
       <c r="H96" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4288,22 +4306,22 @@
         <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="D97" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="E97" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="F97" t="s">
         <v>333</v>
       </c>
       <c r="G97" t="s">
-        <v>413</v>
+        <v>351</v>
       </c>
       <c r="H97" t="s">
-        <v>416</v>
+        <v>473</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4314,22 +4332,22 @@
         <v>105</v>
       </c>
       <c r="C98" t="s">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="D98" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
       <c r="E98" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="F98" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G98" t="s">
-        <v>340</v>
+        <v>415</v>
       </c>
       <c r="H98" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4343,19 +4361,19 @@
         <v>199</v>
       </c>
       <c r="D99" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E99" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F99" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G99" t="s">
-        <v>403</v>
+        <v>342</v>
       </c>
       <c r="H99" t="s">
-        <v>416</v>
+        <v>474</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4369,19 +4387,19 @@
         <v>200</v>
       </c>
       <c r="D100" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E100" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F100" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G100" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="H100" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4395,19 +4413,19 @@
         <v>201</v>
       </c>
       <c r="D101" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E101" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F101" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G101" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H101" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4421,19 +4439,19 @@
         <v>202</v>
       </c>
       <c r="D102" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E102" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F102" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G102" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="H102" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4447,19 +4465,19 @@
         <v>203</v>
       </c>
       <c r="D103" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E103" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F103" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G103" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="H103" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4473,19 +4491,19 @@
         <v>204</v>
       </c>
       <c r="D104" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E104" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F104" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G104" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="H104" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4499,19 +4517,19 @@
         <v>205</v>
       </c>
       <c r="D105" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E105" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F105" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G105" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H105" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4525,19 +4543,45 @@
         <v>206</v>
       </c>
       <c r="D106" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E106" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F106" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G106" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H106" t="s">
-        <v>416</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" t="s">
+        <v>114</v>
+      </c>
+      <c r="C107" t="s">
+        <v>207</v>
+      </c>
+      <c r="D107" t="s">
+        <v>275</v>
+      </c>
+      <c r="E107" t="s">
+        <v>327</v>
+      </c>
+      <c r="F107" t="s">
+        <v>334</v>
+      </c>
+      <c r="G107" t="s">
+        <v>417</v>
+      </c>
+      <c r="H107" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
